--- a/data/case1/9/Q_device_14.xlsx
+++ b/data/case1/9/Q_device_14.xlsx
@@ -56,40 +56,40 @@
   <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.034643015233834493</v>
+        <v>-0.044240474742267756</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.034643015282268985</v>
+        <v>0.04424047468677933</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.040082003726792902</v>
+        <v>-0.038065185781221145</v>
       </c>
       <c r="B2" s="0">
-        <v>0.040082003681381713</v>
+        <v>0.038065185707010341</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0087791166846478193</v>
+        <v>0.012554216011769429</v>
       </c>
       <c r="B3" s="0">
-        <v>0.0087791166368587185</v>
+        <v>-0.012554216135674425</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.052072054234376122</v>
+        <v>0.053824049483913401</v>
       </c>
       <c r="B4" s="0">
-        <v>0.052072054174985352</v>
+        <v>-0.053824049570310492</v>
       </c>
     </row>
   </sheetData>
